--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_bgp_test_ni_bgp_remove_private_as_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_bgp_test_ni_bgp_remove_private_as_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:b985be53-4e1a-4d23-acc9-dea3bd1af9b9"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:f583f20c-df8c-491c-9e9f-91f73da4bbe5"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -532,11 +532,11 @@
           &lt;/config&gt;
           &lt;protocols&gt;
             &lt;protocol&gt;
-              &lt;identifier&gt;BGP&lt;/identifier&gt;
-              &lt;name&gt;BGP_65000&lt;/name&gt;
+              &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:BGP&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
               &lt;config&gt;
                 &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:BGP&lt;/identifier&gt;
-                &lt;name&gt;BGP_65000&lt;/name&gt;
+                &lt;name&gt;default&lt;/name&gt;
               &lt;/config&gt;
               &lt;bgp&gt;
                 &lt;global&gt;
